--- a/biology/Biologie cellulaire et moléculaire/Antigène_HY/Antigène_HY.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Antigène_HY/Antigène_HY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antig%C3%A8ne_HY</t>
+          <t>Antigène_HY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'antigène HY ou antigène d'histocompatibilité est une molécule glycoprotéique, découverte en 1955, qui a été considérée jusqu'au milieu des années 1980 comme le facteur déterminant de la différenciation sexuelle, ou facteur déterminant des testicules[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'antigène HY ou antigène d'histocompatibilité est une molécule glycoprotéique, découverte en 1955, qui a été considérée jusqu'au milieu des années 1980 comme le facteur déterminant de la différenciation sexuelle, ou facteur déterminant des testicules. 
 Plusieurs éléments ont conduit à cette hypothèse, qui est désormais presque unanimement contestée. Entre autres :
 une corrélation plus forte, chez certaines espèces, entre cette molécule et le phénotype mâle ou femelle, que la corrélation entre le chromosome Y et ces phénotypes.
-la présence de cet antigène chez des hommes ayant un caryotype XX[1].
-Toutefois, plusieurs éléments ont réfuté cette hypothèse, dont notamment la présence de cet antigène chez des femmes de caryotype [XX], et son absence chez des hommes de même caryotype. Par ailleurs, il a été démontré que sous cette appellation, il existait en réalité deux antigènes distincts, ne s'exprimant pas forcément chez tous les individus[1].
-Les hypothèses suivantes se sont penchées sur les gènes ZFY et SRY, ce dernier étant un candidat plus probant, mais insuffisant à lui seul pour être l'unique facteur déterminant des testicules[1].
+la présence de cet antigène chez des hommes ayant un caryotype XX.
+Toutefois, plusieurs éléments ont réfuté cette hypothèse, dont notamment la présence de cet antigène chez des femmes de caryotype [XX], et son absence chez des hommes de même caryotype. Par ailleurs, il a été démontré que sous cette appellation, il existait en réalité deux antigènes distincts, ne s'exprimant pas forcément chez tous les individus.
+Les hypothèses suivantes se sont penchées sur les gènes ZFY et SRY, ce dernier étant un candidat plus probant, mais insuffisant à lui seul pour être l'unique facteur déterminant des testicules.
 Il active la formation des testicules à partir des gonades primaires chez le fœtus mâle.  Vers la 7e semaine de grossesse, le gène SRY du chromosome Y produit cette molécule.[réf. nécessaire]
 </t>
         </is>
